--- a/data/interim/zdt1/fitness_nsga2_0.xlsx
+++ b/data/interim/zdt1/fitness_nsga2_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="11">
   <si>
     <t>obj1</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,33 +435,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.01846840905146918</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B2">
-        <v>3.634065507750302</v>
+        <v>3.97499436043566</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.03014407616746018</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B3">
-        <v>3.484278484442107</v>
+        <v>2.224417825594803</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -470,21 +470,21 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>0.3766497232670123</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.09513292112399074</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B4">
-        <v>3.115551296462742</v>
+        <v>3.155707983897967</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -493,21 +493,21 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.355076780792547</v>
       </c>
       <c r="G4">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.01322485277483543</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B5">
-        <v>3.630337726518666</v>
+        <v>2.431281482872341</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -516,21 +516,21 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.290958977550123</v>
       </c>
       <c r="G5">
-        <v>438</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.6010830384898126</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B6">
-        <v>2.310021539803965</v>
+        <v>3.616068435897088</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -539,21 +539,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.7090410224498772</v>
       </c>
       <c r="G6">
-        <v>371</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.2336117549292617</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B7">
-        <v>2.870279371754922</v>
+        <v>1.906322603289074</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -562,21 +562,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.385295698191518</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B8">
-        <v>2.59595350272448</v>
+        <v>3.478493494979588</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -585,21 +585,21 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>416</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.4420218631601255</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B9">
-        <v>2.539247464589699</v>
+        <v>2.081600247043015</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -608,21 +608,21 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>365</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>0.07035283393470027</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B10">
-        <v>3.256391509620975</v>
+        <v>3.036793071975644</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -631,21 +631,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>295</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0.03014407616746018</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B11">
-        <v>2.953777013940412</v>
+        <v>1.901674898498422</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -654,21 +654,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>0.1286995431764957</v>
+        <v>0.6389538967462516</v>
       </c>
       <c r="B12">
-        <v>3.149473755602696</v>
+        <v>1.91002825350397</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -677,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>0.03014407616746018</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B13">
-        <v>3.190000180501114</v>
+        <v>3.155540606029902</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -700,21 +700,21 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>419</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>0.01846840905146918</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B14">
-        <v>3.534387914432866</v>
+        <v>2.230531205656742</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>0.4420218631601255</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B15">
-        <v>2.396354388809703</v>
+        <v>2.000144019971617</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -746,21 +746,21 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>180</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>0.6010830384898126</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B16">
-        <v>1.949706760553363</v>
+        <v>1.964508924944067</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -769,21 +769,21 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>369</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>0.6010830384898126</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B17">
-        <v>2.028136152541242</v>
+        <v>3.268501965297586</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>0.2336117549292617</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B18">
-        <v>2.519896645251571</v>
+        <v>2.081675222593732</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -815,21 +815,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>379</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>0.09513292112399074</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B19">
-        <v>2.981143011006858</v>
+        <v>3.126389268118547</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -838,21 +838,21 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>435</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>0.1213638083425728</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B20">
-        <v>3.204695424591283</v>
+        <v>2.67504817810367</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -861,21 +861,21 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>326</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>0.1286995431764957</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B21">
-        <v>2.948918739508055</v>
+        <v>1.938552921549706</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -890,15 +890,15 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>402</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>0.6010830384898126</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B22">
-        <v>2.309695738206449</v>
+        <v>1.841709211538771</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -907,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>319</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>0.01846840905146918</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B23">
-        <v>3.196001231392384</v>
+        <v>3.261116847054459</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -930,44 +930,44 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>0.385295698191518</v>
+        <v>0.9807957315951545</v>
       </c>
       <c r="B24">
-        <v>2.38783941428238</v>
+        <v>2.301236866924604</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>353</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>0.385295698191518</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B25">
-        <v>2.547482108725796</v>
+        <v>3.484147784439172</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>390</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>0.2336117549292617</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B26">
-        <v>2.594151164980019</v>
+        <v>1.910198102261127</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -999,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>384</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>0.07035283393470027</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B27">
-        <v>3.249604653752072</v>
+        <v>3.159776785054615</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1022,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>315</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>0.01846840905146918</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B28">
-        <v>3.362261394299893</v>
+        <v>3.196698965244892</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>0.1286995431764957</v>
+        <v>0.6389538967462516</v>
       </c>
       <c r="B29">
-        <v>2.939892959616921</v>
+        <v>1.796753968203762</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>239</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>0.03014407616746018</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B30">
-        <v>3.22693484752177</v>
+        <v>2.652444447237691</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1091,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>332</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>0.01322485277483543</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B31">
-        <v>3.673585306852888</v>
+        <v>3.208736859354507</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>0.2336117549292617</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B32">
-        <v>2.748467647669018</v>
+        <v>3.40737976006414</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1137,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>0.01846840905146918</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B33">
-        <v>3.469750708289358</v>
+        <v>3.239522088844052</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1160,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>358</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>0.1415030283284403</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B34">
-        <v>2.970110005486754</v>
+        <v>2.533748731392678</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1183,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>317</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>0.09513292112399074</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B35">
-        <v>3.173953598397628</v>
+        <v>3.115424933306378</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1206,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>233</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>0.01322485277483543</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B36">
-        <v>3.532982822761673</v>
+        <v>2.137709379872163</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1229,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>385</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>0.834475320431656</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B37">
-        <v>1.438558739657605</v>
+        <v>1.981044482975094</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1252,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>0.03014407616746018</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B38">
-        <v>3.471060200004985</v>
+        <v>3.181660549954707</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1275,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>223</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>0.07035283393470027</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B39">
-        <v>3.236718141570199</v>
+        <v>3.280836651452809</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1298,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>0.385295698191518</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B40">
-        <v>2.579882259001687</v>
+        <v>2.403804701836466</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1321,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>289</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>0.2336117549292617</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B41">
-        <v>2.390317677042541</v>
+        <v>2.155245640982853</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1344,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>408</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>0.01322485277483543</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B42">
-        <v>3.524352079506926</v>
+        <v>2.06664030786553</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1367,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>344</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>0.01322485277483543</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B43">
-        <v>3.60321845887389</v>
+        <v>2.748754953389002</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1390,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>0.009344304839246864</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B44">
-        <v>3.701064968265684</v>
+        <v>3.172419652284962</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1413,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>425</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>0.03014407616746018</v>
+        <v>0.9866249743854321</v>
       </c>
       <c r="B45">
-        <v>3.175581776547521</v>
+        <v>1.469264354236113</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1436,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>0.009344304839246864</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B46">
-        <v>3.82764937025276</v>
+        <v>1.893845825187305</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1459,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>0.8959944268024932</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B47">
-        <v>1.685054933735489</v>
+        <v>2.469312648332109</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1482,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>305</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>0.009344304839246864</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B48">
-        <v>3.682006947260427</v>
+        <v>2.87386336461841</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1511,15 +1511,15 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>339</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>0.1213638083425728</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B49">
-        <v>2.996842031944297</v>
+        <v>2.496589090457139</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1528,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>415</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>0.834475320431656</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B50">
-        <v>1.902063348447919</v>
+        <v>2.481454961291729</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1557,15 +1557,15 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>0.009344304839246864</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B51">
-        <v>4.092908713710725</v>
+        <v>3.186696700288071</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1574,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>411</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>0.009344304839246864</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B52">
-        <v>4.203763304878622</v>
+        <v>3.299951782306135</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1597,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>0.4420218631601255</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B53">
-        <v>2.534599732280471</v>
+        <v>3.060955404079868</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1620,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>360</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>0.834475320431656</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B54">
-        <v>1.752068447711021</v>
+        <v>2.749882495624623</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1643,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>352</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>0.4420218631601255</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B55">
-        <v>2.271790784960509</v>
+        <v>2.661817788276661</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1666,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>0.385295698191518</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B56">
-        <v>2.532717474485327</v>
+        <v>2.56177696436056</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1689,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>375</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>0.03014407616746018</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B57">
-        <v>3.396709948234011</v>
+        <v>3.044629709689219</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1712,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>0.834475320431656</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B58">
-        <v>1.793716188891826</v>
+        <v>3.107093242767976</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1735,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>0.834475320431656</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B59">
-        <v>1.744787105300573</v>
+        <v>2.098923637160329</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1758,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>0.4420218631601255</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B60">
-        <v>2.389189521938538</v>
+        <v>2.613153659768607</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>0.834475320431656</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B61">
-        <v>1.567661491536698</v>
+        <v>2.153451029145698</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1804,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>0.009344304839246864</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B62">
-        <v>3.918447057350073</v>
+        <v>2.841134327026682</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1827,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>418</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>0.2336117549292617</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B63">
-        <v>2.725876579597064</v>
+        <v>1.858147829182814</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1850,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>0.6010830384898126</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B64">
-        <v>1.948109881846176</v>
+        <v>3.166678641426958</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1873,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>0.09513292112399074</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B65">
-        <v>2.936145238658276</v>
+        <v>2.88924333570053</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1902,15 +1902,15 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>0.01322485277483543</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B66">
-        <v>3.542792266049134</v>
+        <v>2.905655697306382</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1919,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>0.6010830384898126</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B67">
-        <v>2.133364146920313</v>
+        <v>2.954343101916661</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1942,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>0.385295698191518</v>
+        <v>0.2492623809906104</v>
       </c>
       <c r="B68">
-        <v>2.375210273580966</v>
+        <v>2.671083808713758</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1965,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>420</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>0.6010830384898126</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B69">
-        <v>2.235950595470731</v>
+        <v>3.069600191721216</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1988,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>298</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>0.1213638083425728</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B70">
-        <v>3.066638718255794</v>
+        <v>2.682430377214981</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2011,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>0.07035283393470027</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B71">
-        <v>2.78540911634293</v>
+        <v>2.196818145158554</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -2034,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>431</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>0.009344304839246864</v>
+        <v>0.0378660225666535</v>
       </c>
       <c r="B72">
-        <v>3.53083969673968</v>
+        <v>3.071931522850079</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2057,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>370</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>0.1286995431764957</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B73">
-        <v>2.683534883356223</v>
+        <v>2.647197011436717</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -2080,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>0.385295698191518</v>
+        <v>0.6389538967462516</v>
       </c>
       <c r="B74">
-        <v>2.302945239440751</v>
+        <v>1.863212362069802</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -2103,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>424</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>0.8959944268024932</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B75">
-        <v>1.81534365198918</v>
+        <v>2.175649351210835</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -2126,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>396</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>0.1286995431764957</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B76">
-        <v>2.742022721564562</v>
+        <v>2.143721604489801</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -2149,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>0.01322485277483543</v>
+        <v>0.6389538967462516</v>
       </c>
       <c r="B77">
-        <v>3.611634048834007</v>
+        <v>1.731473257739433</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -2172,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>331</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>0.2336117549292617</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B78">
-        <v>2.805700061915464</v>
+        <v>2.091181563199029</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -2195,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>404</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>0.01846840905146918</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B79">
-        <v>3.400089577389369</v>
+        <v>2.902767805875865</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -2218,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>0.01846840905146918</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B80">
-        <v>3.345218967778957</v>
+        <v>2.717928418869474</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -2241,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>0.834475320431656</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B81">
-        <v>1.549348311331776</v>
+        <v>2.46465958352804</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2264,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>437</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>0.09513292112399074</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B82">
-        <v>2.862675565553193</v>
+        <v>2.053079019431171</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -2287,88 +2287,136 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>0.01846840905146918</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B83">
-        <v>3.423467246923599</v>
+        <v>2.409293231647465</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>440</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>0.3197978543539255</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B84">
-        <v>0.4344932764732805</v>
+        <v>2.687456113717816</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>0.8856236425620972</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B85">
-        <v>0.05892420997982462</v>
+        <v>3.265800057607608</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>0.4460496286487721</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B86">
-        <v>0.3321305302315638</v>
+        <v>3.478999085933</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>0.308304703276825</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B87">
-        <v>0.4447480722439363</v>
+        <v>2.684529699389574</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>0.7080529204571752</v>
+        <v>0.1769576302754001</v>
       </c>
       <c r="B88">
-        <v>0.1585411950325939</v>
+        <v>0.5793366782385228</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2376,10 +2424,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>0.1487585691150732</v>
+        <v>0.8264704562596782</v>
       </c>
       <c r="B89">
-        <v>0.6143076755818528</v>
+        <v>0.0908957946089578</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2387,10 +2435,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>0.4834062302001553</v>
+        <v>0.5252133197770029</v>
       </c>
       <c r="B90">
-        <v>0.304725787764169</v>
+        <v>0.2752839730094256</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2398,10 +2446,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>0.8324935049925087</v>
+        <v>0.4525122236128426</v>
       </c>
       <c r="B91">
-        <v>0.08758917970438951</v>
+        <v>0.3273097119678012</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -2409,10 +2457,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>0.5150565890502112</v>
+        <v>0.3926488210720126</v>
       </c>
       <c r="B92">
-        <v>0.2823255689031333</v>
+        <v>0.3733830348035472</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2420,10 +2468,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>0.3298875880832317</v>
+        <v>0.5833980697926761</v>
       </c>
       <c r="B93">
-        <v>0.4256415856947583</v>
+        <v>0.2361950053890221</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2431,10 +2479,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>0.490638324031034</v>
+        <v>0.439244678041675</v>
       </c>
       <c r="B94">
-        <v>0.299544202657274</v>
+        <v>0.3372446318273423</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2442,10 +2490,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>0.8164265726623628</v>
+        <v>0.1075011889364363</v>
       </c>
       <c r="B95">
-        <v>0.09643673566132471</v>
+        <v>0.6721262606788456</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2453,10 +2501,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>0.8756622775237989</v>
+        <v>0.7272644671995059</v>
       </c>
       <c r="B96">
-        <v>0.06423171803923655</v>
+        <v>0.1472019774885112</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2464,10 +2512,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.7726561265104605</v>
+        <v>0.4798429920178386</v>
       </c>
       <c r="B97">
-        <v>0.1209913956561856</v>
+        <v>0.3072929969909077</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -2475,10 +2523,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.3646462185583337</v>
+        <v>0.1501865545782121</v>
       </c>
       <c r="B98">
-        <v>0.396140563907184</v>
+        <v>0.6124608992911657</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2486,10 +2534,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.7564615682944852</v>
+        <v>0.6639181221678161</v>
       </c>
       <c r="B99">
-        <v>0.1302520087436332</v>
+        <v>0.1851882903591676</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2497,10 +2545,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.9051401034935572</v>
+        <v>0.8101569795235875</v>
       </c>
       <c r="B100">
-        <v>0.04861148656631487</v>
+        <v>0.09991279337855963</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -2508,10 +2556,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.1730203819107105</v>
+        <v>0.7000492578277377</v>
       </c>
       <c r="B101">
-        <v>0.5840428124064805</v>
+        <v>0.1633105368012946</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2519,10 +2567,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>0.1018190935577156</v>
+        <v>0.2678913008423479</v>
       </c>
       <c r="B102">
-        <v>0.6809089572587228</v>
+        <v>0.4824178317963921</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2530,10 +2578,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>0.2749554705031356</v>
+        <v>0.6520601032911137</v>
       </c>
       <c r="B103">
-        <v>0.4756380348431671</v>
+        <v>0.1924976140647547</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -2541,10 +2589,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>0.5845327355523551</v>
+        <v>0.7770640683780899</v>
       </c>
       <c r="B104">
-        <v>0.2354525943067003</v>
+        <v>0.1184876243761011</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -2552,10 +2600,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>0.5999008076719622</v>
+        <v>0.547227555380834</v>
       </c>
       <c r="B105">
-        <v>0.2254673617774637</v>
+        <v>0.2602516945738679</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -2563,10 +2611,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>0.6286936280228315</v>
+        <v>0.7544557695250161</v>
       </c>
       <c r="B106">
-        <v>0.2070979707285197</v>
+        <v>0.131405866054222</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -2574,10 +2622,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>0.5850597247970106</v>
+        <v>0.04791800809492774</v>
       </c>
       <c r="B107">
-        <v>0.2351080306363449</v>
+        <v>0.7810981770406474</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -2585,10 +2633,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>0.4900468568818304</v>
+        <v>0.4598315288383398</v>
       </c>
       <c r="B108">
-        <v>0.2999665315987883</v>
+        <v>0.3218912116493845</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2596,10 +2644,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>0.5000575027629524</v>
+        <v>0.7552978699612326</v>
       </c>
       <c r="B109">
-        <v>0.2928525593888129</v>
+        <v>0.1309212521518935</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2607,10 +2655,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>0.8622957251886857</v>
+        <v>0.08180330085114607</v>
       </c>
       <c r="B110">
-        <v>0.07140120332369282</v>
+        <v>0.7139872365590199</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -2618,10 +2666,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>0.5271261577460717</v>
+        <v>0.2912906975081437</v>
       </c>
       <c r="B111">
-        <v>0.2739654569195267</v>
+        <v>0.4602864671808351</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -2629,10 +2677,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>0.6466506629672288</v>
+        <v>0.8414432601685367</v>
       </c>
       <c r="B112">
-        <v>0.1958540785608442</v>
+        <v>0.08269783595124081</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2640,10 +2688,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>0.8148434808781163</v>
+        <v>0.2911457833545831</v>
       </c>
       <c r="B113">
-        <v>0.09731318782308762</v>
+        <v>0.4604207348733802</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -2651,10 +2699,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>0.9675718799066994</v>
+        <v>0.4395954758318166</v>
       </c>
       <c r="B114">
-        <v>0.01634768342330462</v>
+        <v>0.3369800336099851</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2662,10 +2710,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>0.9665954965826767</v>
+        <v>0.3153048901599963</v>
       </c>
       <c r="B115">
-        <v>0.01684411379340423</v>
+        <v>0.4384798399344897</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -2673,10 +2721,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>0.9152846119314146</v>
+        <v>0.7562313721934452</v>
       </c>
       <c r="B116">
-        <v>0.04329491904170668</v>
+        <v>0.1303843537553817</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -2684,10 +2732,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>0.9388885668915989</v>
+        <v>0.05132205549666347</v>
       </c>
       <c r="B117">
-        <v>0.03103737590575817</v>
+        <v>0.7734562834756535</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -2695,10 +2743,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>0.8335963992083177</v>
+        <v>0.1664528806562539</v>
       </c>
       <c r="B118">
-        <v>0.08698499508041069</v>
+        <v>0.592013626874311</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2706,10 +2754,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>0.7504050428209207</v>
+        <v>0.1576252675699377</v>
       </c>
       <c r="B119">
-        <v>0.1337407761986481</v>
+        <v>0.6029795124052946</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2717,10 +2765,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>0.6535020554739315</v>
+        <v>0.618698036900594</v>
       </c>
       <c r="B120">
-        <v>0.1916052601148795</v>
+        <v>0.213426394480088</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -2728,10 +2776,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>0.8662501958683193</v>
+        <v>0.7346666127892433</v>
       </c>
       <c r="B121">
-        <v>0.06927437132723191</v>
+        <v>0.1428730474490706</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -2739,10 +2787,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>0.481762509184166</v>
+        <v>0.5381059910173821</v>
       </c>
       <c r="B122">
-        <v>0.3059088610390088</v>
+        <v>0.2664429190462531</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
@@ -2750,10 +2798,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>0.1867875271057171</v>
+        <v>0.6135761028313479</v>
       </c>
       <c r="B123">
-        <v>0.5678107739592331</v>
+        <v>0.2166890126958847</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -2761,10 +2809,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>0.6580280742505835</v>
+        <v>0.6225447579910867</v>
       </c>
       <c r="B124">
-        <v>0.1888107038116297</v>
+        <v>0.2109849443824999</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -2772,10 +2820,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>0.4786962601788008</v>
+        <v>0.4075681220952169</v>
       </c>
       <c r="B125">
-        <v>0.3081212099082666</v>
+        <v>0.361589378146622</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -2783,10 +2831,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>0.09014277773437562</v>
+        <v>0.81557693922712</v>
       </c>
       <c r="B126">
-        <v>0.6997621314118161</v>
+        <v>0.09690701518220168</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -2794,10 +2842,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>0.9948303172779329</v>
+        <v>0.527801801250995</v>
       </c>
       <c r="B127">
-        <v>0.002588190726652284</v>
+        <v>0.2735003088431524</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -2805,10 +2853,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>0.03065968911067474</v>
+        <v>0.2265702640225776</v>
       </c>
       <c r="B128">
-        <v>0.8249009163054394</v>
+        <v>0.5240060252245018</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -2816,10 +2864,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>0.007388415359616984</v>
+        <v>0.153010792859422</v>
       </c>
       <c r="B129">
-        <v>0.91404410805758</v>
+        <v>0.6088340596889577</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2827,10 +2875,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>0.2171862914072688</v>
+        <v>0.9732989230554244</v>
       </c>
       <c r="B130">
-        <v>0.5339674996233967</v>
+        <v>0.01344086692412383</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
@@ -2838,10 +2886,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>0.4323735165147766</v>
+        <v>0.1817744027931943</v>
       </c>
       <c r="B131">
-        <v>0.3424488487465203</v>
+        <v>0.5736499058365363</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
@@ -2849,10 +2897,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>0.2980786015836231</v>
+        <v>0.1882151881580988</v>
       </c>
       <c r="B132">
-        <v>0.4540342487081969</v>
+        <v>0.5661622559549495</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -2860,10 +2908,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>0.4673943579529974</v>
+        <v>0.06322205782544044</v>
       </c>
       <c r="B133">
-        <v>0.3163375409216933</v>
+        <v>0.7485600313684388</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -2871,10 +2919,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>0.3471150995465495</v>
+        <v>0.6183884485895111</v>
       </c>
       <c r="B134">
-        <v>0.4108352526274595</v>
+        <v>0.2136232146168663</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -2882,10 +2930,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>0.6136502223884572</v>
+        <v>0.6996540519400063</v>
       </c>
       <c r="B135">
-        <v>0.2166417024193481</v>
+        <v>0.1635467425253182</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -2893,10 +2941,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>0.6909252763160668</v>
+        <v>0.6497697101541765</v>
       </c>
       <c r="B136">
-        <v>0.1687808494048836</v>
+        <v>0.1939170575218847</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -2904,10 +2952,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>0.5596269192091479</v>
+        <v>0.4466703958267103</v>
       </c>
       <c r="B137">
-        <v>0.2519178392655337</v>
+        <v>0.3316659549097395</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -2915,10 +2963,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>0.2623831030831455</v>
+        <v>0.1132982043668516</v>
       </c>
       <c r="B138">
-        <v>0.487766554115074</v>
+        <v>0.6634020137213361</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -2926,10 +2974,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>0.4920388925095124</v>
+        <v>0.3076035788901175</v>
       </c>
       <c r="B139">
-        <v>0.2985451600355784</v>
+        <v>0.4453797886029418</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -2937,10 +2985,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>0.993102171449134</v>
+        <v>0.625113569683632</v>
       </c>
       <c r="B140">
-        <v>0.003454882381568214</v>
+        <v>0.2093587604459074</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -2948,10 +2996,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>0.4613217033933332</v>
+        <v>0.6889984643085004</v>
       </c>
       <c r="B141">
-        <v>0.3207933279234271</v>
+        <v>0.1699406862708542</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2959,10 +3007,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>0.9590381916391041</v>
+        <v>0.6056607163105719</v>
       </c>
       <c r="B142">
-        <v>0.02069504665854771</v>
+        <v>0.221757932060614</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -2970,10 +3018,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>0.572107336448898</v>
+        <v>0.9180074665462794</v>
       </c>
       <c r="B143">
-        <v>0.2436222263650935</v>
+        <v>0.04187293820376858</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -2981,10 +3029,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>0.5110872845931438</v>
+        <v>0.5826437649724032</v>
       </c>
       <c r="B144">
-        <v>0.2850963109668941</v>
+        <v>0.2366889461219606</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -2992,10 +3040,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>0.6507902579523913</v>
+        <v>0.5852024560258562</v>
       </c>
       <c r="B145">
-        <v>0.1932842768655173</v>
+        <v>0.2350147347655276</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
@@ -3003,10 +3051,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>0.8997199555330018</v>
+        <v>0.760971089858791</v>
       </c>
       <c r="B146">
-        <v>0.05146430982645589</v>
+        <v>0.1276634308600888</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -3014,10 +3062,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>0.7418724364148007</v>
+        <v>0.3279146148763589</v>
       </c>
       <c r="B147">
-        <v>0.1386798293231485</v>
+        <v>0.427361706767388</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
@@ -3025,10 +3073,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>0.1129907692271176</v>
+        <v>0.8138295237682464</v>
       </c>
       <c r="B148">
-        <v>0.6638590039475732</v>
+        <v>0.09787499548663081</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -3036,10 +3084,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>0.2681082620861307</v>
+        <v>0.3573639250404659</v>
       </c>
       <c r="B149">
-        <v>0.4822082831039776</v>
+        <v>0.4022007652727666</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -3047,10 +3095,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>0.1285048041532401</v>
+        <v>0.8661343134675039</v>
       </c>
       <c r="B150">
-        <v>0.6415243325506736</v>
+        <v>0.06933662720213174</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -3058,10 +3106,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>0.9461631405114014</v>
+        <v>0.07468177894293471</v>
       </c>
       <c r="B151">
-        <v>0.02729082428949947</v>
+        <v>0.7267203283393828</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -3069,10 +3117,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>0.1353747945897724</v>
+        <v>0.2168550738110429</v>
       </c>
       <c r="B152">
-        <v>0.6320668612508892</v>
+        <v>0.5343229941138999</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -3080,10 +3128,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>0.9272283901859887</v>
+        <v>0.8152041133393667</v>
       </c>
       <c r="B153">
-        <v>0.03707300890151144</v>
+        <v>0.09711345489072287</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -3091,10 +3139,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>0.522566259221003</v>
+        <v>0.9648608884556547</v>
       </c>
       <c r="B154">
-        <v>0.2771125542513531</v>
+        <v>0.01772667324432831</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -3102,10 +3150,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>0.8076369454662365</v>
+        <v>0.2759784292356735</v>
       </c>
       <c r="B155">
-        <v>0.1013137669540962</v>
+        <v>0.4746635085626799</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -3113,10 +3161,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>0.9891917120866787</v>
+        <v>0.8553132098517281</v>
       </c>
       <c r="B156">
-        <v>0.005418825793148896</v>
+        <v>0.07516855057165794</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -3124,10 +3172,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>0.125588034338505</v>
+        <v>0.6006216084426382</v>
       </c>
       <c r="B157">
-        <v>0.6456159790022906</v>
+        <v>0.2250021881046126</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3135,10 +3183,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>0.7368778931755843</v>
+        <v>0.3673191882555814</v>
       </c>
       <c r="B158">
-        <v>0.1415840791460212</v>
+        <v>0.3939313667120024</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -3146,10 +3194,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>0.9587048040162622</v>
+        <v>0.1908637761175143</v>
       </c>
       <c r="B159">
-        <v>0.02086527790285042</v>
+        <v>0.5631204100469853</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3157,10 +3205,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>0.8957673576721255</v>
+        <v>0.9474041106616052</v>
       </c>
       <c r="B160">
-        <v>0.0535501293401085</v>
+        <v>0.02665313959431437</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -3168,10 +3216,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>0.6392566782731512</v>
+        <v>0.0160528040425626</v>
       </c>
       <c r="B161">
-        <v>0.2004647110520066</v>
+        <v>0.8733003392168606</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3179,10 +3227,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>0.7586631901650722</v>
+        <v>0.6136848934035121</v>
       </c>
       <c r="B162">
-        <v>0.1289872617664698</v>
+        <v>0.2166195730020363</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -3190,10 +3238,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>0.05978046307039431</v>
+        <v>0.3551333993874033</v>
       </c>
       <c r="B163">
-        <v>0.7554995642736105</v>
+        <v>0.4040692998448534</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -3201,102 +3249,54 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>0.4953006508490233</v>
+        <v>0.456589539394699</v>
       </c>
       <c r="B164">
-        <v>5.073088344862589</v>
+        <v>0.3242859041024089</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>0.9732404216845049</v>
+        <v>0.8309319725351554</v>
       </c>
       <c r="B165">
-        <v>4.133312425718144</v>
+        <v>0.08844529920845923</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>0.675529174233329</v>
+        <v>0.7434543129899782</v>
       </c>
       <c r="B166">
-        <v>4.897636739014755</v>
+        <v>0.1377620322730051</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>8</v>
-      </c>
-      <c r="F166">
-        <v>2</v>
-      </c>
-      <c r="G166">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>0.1286995431764957</v>
+        <v>0.4530829620940302</v>
       </c>
       <c r="B167">
-        <v>4.247439909514624</v>
+        <v>0.3268856248050929</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>0.8283960305404224</v>
+        <v>0.8475500466738285</v>
       </c>
       <c r="B168">
-        <v>3.276060327800532</v>
+        <v>3.964418632906197</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -3305,21 +3305,18 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>3</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G168">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>0.7961141622002865</v>
+        <v>0.2180155651825776</v>
       </c>
       <c r="B169">
-        <v>3.654316318708458</v>
+        <v>4.813997428446048</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -3328,21 +3325,18 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>5</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G169">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>0.6670106047698179</v>
+        <v>0.1112701127842038</v>
       </c>
       <c r="B170">
-        <v>3.388878596837057</v>
+        <v>4.774495742688753</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -3353,19 +3347,16 @@
       <c r="E170">
         <v>3</v>
       </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
       <c r="G170">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>0.4752478631378396</v>
+        <v>0.4995822889407093</v>
       </c>
       <c r="B171">
-        <v>4.12732357283877</v>
+        <v>3.958975753165974</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -3374,21 +3365,18 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>5</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G171">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>0.9001843330432097</v>
+        <v>0.8829552541287455</v>
       </c>
       <c r="B172">
-        <v>3.422665192186313</v>
+        <v>3.843007253714757</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
@@ -3397,21 +3385,18 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>5</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G172">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>0.2737250353926955</v>
+        <v>0.1879099347283276</v>
       </c>
       <c r="B173">
-        <v>4.433773162845601</v>
+        <v>4.383017611205593</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3420,21 +3405,18 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>4</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G173">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>0.2336117549292617</v>
+        <v>0.3165317543964173</v>
       </c>
       <c r="B174">
-        <v>4.157163798725073</v>
+        <v>3.013648134800688</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -3443,21 +3425,18 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>2</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>0.4993781115028367</v>
+        <v>0.9807957315951545</v>
       </c>
       <c r="B175">
-        <v>3.968133674169031</v>
+        <v>2.761022931908219</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -3466,21 +3445,18 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>5</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>0.01846840905146918</v>
+        <v>0.401041261496183</v>
       </c>
       <c r="B176">
-        <v>4.326673784032213</v>
+        <v>5.131521732903246</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -3489,21 +3465,18 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>0.945597010834006</v>
+        <v>0.9572679442981463</v>
       </c>
       <c r="B177">
-        <v>2.365190540661114</v>
+        <v>3.508106200078391</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -3512,21 +3485,18 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>2</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G177">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>0.8959944268024932</v>
+        <v>0.8931480838696165</v>
       </c>
       <c r="B178">
-        <v>2.339524667264202</v>
+        <v>3.755239975629781</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -3535,21 +3505,18 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G178">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>0.2371771007738399</v>
+        <v>0.486309435157025</v>
       </c>
       <c r="B179">
-        <v>4.320363947134082</v>
+        <v>3.754605751102764</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -3558,21 +3525,18 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>3</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G179">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>0.8711729009468673</v>
+        <v>0.05493150721514206</v>
       </c>
       <c r="B180">
-        <v>3.441764745592703</v>
+        <v>5.14379081933537</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -3581,21 +3545,18 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>5</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G180">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>0.8239571189810927</v>
+        <v>0.5081295983981822</v>
       </c>
       <c r="B181">
-        <v>2.7704040478636</v>
+        <v>3.326889806177252</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3604,21 +3565,18 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>0.07035283393470027</v>
+        <v>0.3102737318077838</v>
       </c>
       <c r="B182">
-        <v>4.697988719828348</v>
+        <v>3.992575703949948</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -3627,21 +3585,18 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>2</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G182">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>0.9325429153071748</v>
+        <v>0.3935892968836819</v>
       </c>
       <c r="B183">
-        <v>2.413481581903223</v>
+        <v>4.319618641592503</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3650,21 +3605,18 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G183">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>0.5452976369223834</v>
+        <v>0.5023282637787584</v>
       </c>
       <c r="B184">
-        <v>3.355540532214782</v>
+        <v>2.792310812199945</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -3675,19 +3627,16 @@
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
       <c r="G184">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>0.3521635179956109</v>
+        <v>0.7928790693541539</v>
       </c>
       <c r="B185">
-        <v>4.467990712043976</v>
+        <v>3.2455037989895</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
@@ -3696,21 +3645,18 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>6</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G185">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>0.5013448185520932</v>
+        <v>0.3041342004045717</v>
       </c>
       <c r="B186">
-        <v>4.177842018161521</v>
+        <v>5.003524942678576</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3721,19 +3667,16 @@
       <c r="E186">
         <v>6</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
       <c r="G186">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>0.4578878091369908</v>
+        <v>0.4234664230029661</v>
       </c>
       <c r="B187">
-        <v>3.928379886487627</v>
+        <v>3.837040498581622</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -3742,21 +3685,18 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>4</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G187">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>0.08214498969632522</v>
+        <v>0.5696874994622743</v>
       </c>
       <c r="B188">
-        <v>5.211024115899422</v>
+        <v>3.978511835500517</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -3765,21 +3705,18 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>4</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G188">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>0.7320829406821932</v>
+        <v>0.8140976131040522</v>
       </c>
       <c r="B189">
-        <v>3.534152217489192</v>
+        <v>3.312548910434717</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3788,21 +3725,18 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>4</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G189">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>0.3442440424649067</v>
+        <v>0.9606645714958097</v>
       </c>
       <c r="B190">
-        <v>3.886260071238888</v>
+        <v>3.390288677083424</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -3811,21 +3745,18 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>2</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G190">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>0.1868892797654884</v>
+        <v>0.1792603368446217</v>
       </c>
       <c r="B191">
-        <v>4.704982060155908</v>
+        <v>4.176768037061099</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -3834,21 +3765,18 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>3</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>0.9583787622778097</v>
+        <v>0.3334948069212259</v>
       </c>
       <c r="B192">
-        <v>2.57453111283531</v>
+        <v>4.647932359870678</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -3857,21 +3785,18 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>3</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G192">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>0.1478232531127557</v>
+        <v>0.2492623809906104</v>
       </c>
       <c r="B193">
-        <v>4.930084848656417</v>
+        <v>3.956256317522824</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -3880,21 +3805,18 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>0.4070729947882817</v>
+        <v>0.7172339391736677</v>
       </c>
       <c r="B194">
-        <v>4.549199824588996</v>
+        <v>3.779495347479991</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -3903,21 +3825,18 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>7</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G194">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>0.8200779521808752</v>
+        <v>0.6619762995953838</v>
       </c>
       <c r="B195">
-        <v>3.123190406060345</v>
+        <v>3.270401535439686</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -3926,21 +3845,18 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G195">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>0.4225120882140643</v>
+        <v>0.2494063443563128</v>
       </c>
       <c r="B196">
-        <v>3.532543915113565</v>
+        <v>4.751052945847299</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -3949,21 +3865,18 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G196">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>0.3904874400204371</v>
+        <v>0.1321439125004787</v>
       </c>
       <c r="B197">
-        <v>4.272426235789778</v>
+        <v>5.166669427115711</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -3972,21 +3885,18 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>4</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G197">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>0.2563779411806094</v>
+        <v>0.4104278646170467</v>
       </c>
       <c r="B198">
-        <v>3.930670323876326</v>
+        <v>3.602762870226668</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -3995,21 +3905,18 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G198">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>0.9316325126433809</v>
+        <v>0.9835808171876667</v>
       </c>
       <c r="B199">
-        <v>2.930190336767446</v>
+        <v>2.890220184529037</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -4018,21 +3925,18 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>3</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>0.1736004691343411</v>
+        <v>0.02752857510384998</v>
       </c>
       <c r="B200">
-        <v>5.027686417962023</v>
+        <v>5.198593323769328</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -4041,21 +3945,18 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>5</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G200">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>0.74371381058368</v>
+        <v>0.4715747796084705</v>
       </c>
       <c r="B201">
-        <v>3.867110290001705</v>
+        <v>3.652618767098466</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -4064,21 +3965,18 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>6</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G201">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>0.8002978544456096</v>
+        <v>0.3324720116492267</v>
       </c>
       <c r="B202">
-        <v>3.549004631097109</v>
+        <v>4.610152217665179</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -4087,21 +3985,18 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>5</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G202">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>0.07261916979417304</v>
+        <v>0.1194694543093577</v>
       </c>
       <c r="B203">
-        <v>5.029484027467907</v>
+        <v>4.915692150690417</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -4110,21 +4005,18 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>3</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G203">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>0.9158959071416916</v>
+        <v>0.278292248547365</v>
       </c>
       <c r="B204">
-        <v>3.71338017688131</v>
+        <v>4.971478668785032</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -4133,21 +4025,18 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>6</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G204">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>0.09513292112399074</v>
+        <v>0.7318898175520243</v>
       </c>
       <c r="B205">
-        <v>4.785047490394035</v>
+        <v>3.220996688761812</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -4158,19 +4047,16 @@
       <c r="E205">
         <v>3</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
       <c r="G205">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>0.6010830384898126</v>
+        <v>0.08060933500312673</v>
       </c>
       <c r="B206">
-        <v>3.208245375063492</v>
+        <v>4.728397368237109</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -4179,21 +4065,18 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>0.009344304839246864</v>
+        <v>0.4442577554538129</v>
       </c>
       <c r="B207">
-        <v>5.466217963862937</v>
+        <v>4.051043243962703</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -4202,21 +4085,18 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G207">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>0.6746569958619434</v>
+        <v>0.9590109096159871</v>
       </c>
       <c r="B208">
-        <v>3.343483709187153</v>
+        <v>3.138164417032176</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -4227,19 +4107,16 @@
       <c r="E208">
         <v>3</v>
       </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
       <c r="G208">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>0.9140258787916794</v>
+        <v>0.5089413051613352</v>
       </c>
       <c r="B209">
-        <v>3.311638708673226</v>
+        <v>3.893511713052343</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -4248,21 +4125,18 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>4</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G209">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>0.623020780930853</v>
+        <v>0.08974224934316211</v>
       </c>
       <c r="B210">
-        <v>4.397863869429051</v>
+        <v>5.280297861327282</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -4271,21 +4145,18 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>7</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G210">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>0.3811580931769606</v>
+        <v>0.05117396006321595</v>
       </c>
       <c r="B211">
-        <v>4.425263209332144</v>
+        <v>4.23487244055143</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -4294,21 +4165,18 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>4</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>0.8289201056790149</v>
+        <v>0.0378660225666535</v>
       </c>
       <c r="B212">
-        <v>3.355652578897617</v>
+        <v>4.329686404288044</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -4317,21 +4185,18 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>4</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>0.834475320431656</v>
+        <v>0.5394114898602009</v>
       </c>
       <c r="B213">
-        <v>2.808758950136136</v>
+        <v>3.759474477488999</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -4340,21 +4205,18 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>2</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G213">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>0.1213638083425728</v>
+        <v>0.7778980798985237</v>
       </c>
       <c r="B214">
-        <v>4.476378210444911</v>
+        <v>3.592911366074414</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -4363,21 +4225,18 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G214">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>0.5187691874197998</v>
+        <v>0.02708001342012412</v>
       </c>
       <c r="B215">
-        <v>3.933818948858964</v>
+        <v>5.565771864294841</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -4386,21 +4245,18 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>5</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G215">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>0.3894811611520733</v>
+        <v>0.5243318162125291</v>
       </c>
       <c r="B216">
-        <v>3.92720568755218</v>
+        <v>3.183368656846737</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -4409,21 +4265,18 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>3</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G216">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>0.1415030283284403</v>
+        <v>0.4482477644675152</v>
       </c>
       <c r="B217">
-        <v>4.084023331505983</v>
+        <v>3.881203732867887</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -4432,21 +4285,18 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G217">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>0.615955739986371</v>
+        <v>0.7514398980679978</v>
       </c>
       <c r="B218">
-        <v>3.23430975858103</v>
+        <v>3.57833957649303</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -4455,21 +4305,18 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>2</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G218">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>0.6168152216013392</v>
+        <v>0.2776885921747128</v>
       </c>
       <c r="B219">
-        <v>3.743910444466917</v>
+        <v>3.986697100911534</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -4478,21 +4325,18 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>3</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G219">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>0.3214850773471971</v>
+        <v>0.7400379280036764</v>
       </c>
       <c r="B220">
-        <v>4.449215118195991</v>
+        <v>3.085768654975415</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -4501,21 +4345,18 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>5</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G220">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>0.4420218631601255</v>
+        <v>0.882006570359247</v>
       </c>
       <c r="B221">
-        <v>4.008510070110483</v>
+        <v>3.313042804184389</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -4524,21 +4365,18 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>4</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G221">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>0.4983656684395444</v>
+        <v>0.4073267543883788</v>
       </c>
       <c r="B222">
-        <v>3.458245998850113</v>
+        <v>3.822339494571199</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -4547,21 +4385,18 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G222">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>0.2075769239610836</v>
+        <v>0.9385159879475317</v>
       </c>
       <c r="B223">
-        <v>4.228171935958294</v>
+        <v>3.769769056615602</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -4570,21 +4405,18 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>2</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>0.3006459823923558</v>
+        <v>0.4507560907360972</v>
       </c>
       <c r="B224">
-        <v>3.854716025437442</v>
+        <v>3.742292102331883</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -4593,21 +4425,18 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G224">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>0.701730178956294</v>
+        <v>0.005981549500479022</v>
       </c>
       <c r="B225">
-        <v>3.632986872689866</v>
+        <v>5.125591185504357</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -4616,21 +4445,18 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>4</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G225">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>0.03014407616746018</v>
+        <v>0.3795196726886194</v>
       </c>
       <c r="B226">
-        <v>5.8018539646241</v>
+        <v>3.929579195793579</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -4639,21 +4465,18 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>2</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G226">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>0.385295698191518</v>
+        <v>0.4491838318793283</v>
       </c>
       <c r="B227">
-        <v>3.729819495009484</v>
+        <v>3.92689450813268</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -4662,21 +4485,18 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G227">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>0.9095057315251445</v>
+        <v>0.496754851929304</v>
       </c>
       <c r="B228">
-        <v>3.890116967059505</v>
+        <v>3.72231968779676</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -4685,21 +4505,18 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>7</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G228">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>0.845156659217433</v>
+        <v>0.3029291491167867</v>
       </c>
       <c r="B229">
-        <v>3.343469692066737</v>
+        <v>3.504606726887119</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -4708,21 +4525,18 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>4</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>0.6225834217332501</v>
+        <v>0.416151407588227</v>
       </c>
       <c r="B230">
-        <v>3.183131872985901</v>
+        <v>4.716364570521263</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -4731,21 +4545,18 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G230">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <v>0.723102513804365</v>
+        <v>0.8114641854815828</v>
       </c>
       <c r="B231">
-        <v>3.332695591447698</v>
+        <v>3.774906269079771</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -4754,21 +4565,18 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>3</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G231">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>0.4552707970993429</v>
+        <v>0.09179414499784266</v>
       </c>
       <c r="B232">
-        <v>3.891446224930271</v>
+        <v>4.532443435871232</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -4777,21 +4585,18 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>3</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G232">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>0.4768569128502449</v>
+        <v>0.4173736542686111</v>
       </c>
       <c r="B233">
-        <v>4.372693233264711</v>
+        <v>4.051764445068763</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -4800,21 +4605,18 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>6</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G233">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>0.6440863930822619</v>
+        <v>0.7579799246595962</v>
       </c>
       <c r="B234">
-        <v>3.595725171636109</v>
+        <v>3.404693491149074</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -4823,21 +4625,18 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>3</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G234">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>0.3235699390911122</v>
+        <v>0.5477405514166659</v>
       </c>
       <c r="B235">
-        <v>4.762907008737521</v>
+        <v>3.427670908284193</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -4846,21 +4645,18 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>6</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G235">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>0.7027787054033908</v>
+        <v>0.3021593513648917</v>
       </c>
       <c r="B236">
-        <v>3.858221434596571</v>
+        <v>4.929017460162075</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -4871,19 +4667,16 @@
       <c r="E236">
         <v>5</v>
       </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
       <c r="G236">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <v>0.2534462919857882</v>
+        <v>0.5625648763918955</v>
       </c>
       <c r="B237">
-        <v>4.137881113814562</v>
+        <v>3.390178192412694</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -4892,21 +4685,18 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>2</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G237">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
-        <v>0.1821293072256303</v>
+        <v>0.00116979548031515</v>
       </c>
       <c r="B238">
-        <v>4.952493266877453</v>
+        <v>4.544440214738835</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -4915,21 +4705,18 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>5</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
-        <v>0.9619607848768664</v>
+        <v>0.5889382584897729</v>
       </c>
       <c r="B239">
-        <v>3.366077317625312</v>
+        <v>4.223542511420565</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -4938,21 +4725,18 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>5</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G239">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>0.480518727484888</v>
+        <v>0.5398587582729083</v>
       </c>
       <c r="B240">
-        <v>4.547763995032582</v>
+        <v>3.813096708100635</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -4961,21 +4745,18 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>7</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G240">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>0.374293214114772</v>
+        <v>0.3122124527390446</v>
       </c>
       <c r="B241">
-        <v>4.464153948119697</v>
+        <v>3.940313726066424</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -4984,21 +4765,18 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>6</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G241">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
-        <v>0.6295217307429307</v>
+        <v>0.7590398095164625</v>
       </c>
       <c r="B242">
-        <v>4.244019742362051</v>
+        <v>3.581884601029896</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
@@ -5007,21 +4785,18 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>7</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G242">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
-        <v>0.4715729306096347</v>
+        <v>0.04213197703927207</v>
       </c>
       <c r="B243">
-        <v>4.334060286503573</v>
+        <v>5.277318864680466</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -5030,12 +4805,49 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>5</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G243">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>0.3741354304811264</v>
+      </c>
+      <c r="B244">
+        <v>3.848772521255118</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="G244">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>0.7917552093394102</v>
+      </c>
+      <c r="B245">
+        <v>3.255395100568878</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="G245">
         <v>79</v>
       </c>
     </row>

--- a/data/interim/zdt1/fitness_nsga2_0.xlsx
+++ b/data/interim/zdt1/fitness_nsga2_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="11">
   <si>
     <t>obj1</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,33 +435,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.00116979548031515</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B2">
-        <v>3.97499436043566</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>336</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.7400379280036764</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B3">
-        <v>2.224417825594803</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -470,21 +470,21 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>297</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1792603368446217</v>
+        <v>0.6357136251452565</v>
       </c>
       <c r="B4">
-        <v>3.155707983897967</v>
+        <v>0.6994739370101754</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -493,21 +493,21 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.355076780792547</v>
+        <v>0.468899349505949</v>
       </c>
       <c r="G4">
-        <v>414</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.5023282637787584</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B5">
-        <v>2.431281482872341</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -516,21 +516,21 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.290958977550123</v>
+        <v>0.4347703837030684</v>
       </c>
       <c r="G5">
-        <v>241</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B6">
-        <v>3.616068435897088</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -539,21 +539,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.7090410224498772</v>
+        <v>0.2619173117770884</v>
       </c>
       <c r="G6">
-        <v>197</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4073267543883788</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B7">
-        <v>1.906322603289074</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -562,21 +562,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.2619173117770884</v>
       </c>
       <c r="G7">
-        <v>448</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.00116979548031515</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B8">
-        <v>3.478493494979588</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -585,21 +585,21 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.2614762370706503</v>
       </c>
       <c r="G8">
-        <v>455</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.5023282637787584</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B9">
-        <v>2.081600247043015</v>
+        <v>0.9777912411483012</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -608,21 +608,21 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2410194451017445</v>
       </c>
       <c r="G9">
-        <v>454</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>0.005981549500479022</v>
+        <v>0.6357136251452565</v>
       </c>
       <c r="B10">
-        <v>3.036793071975644</v>
+        <v>0.6994739370101754</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -631,21 +631,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.2271454344548371</v>
       </c>
       <c r="G10">
-        <v>353</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0.5023282637787584</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B11">
-        <v>1.901674898498422</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -654,21 +654,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2074231124352987</v>
       </c>
       <c r="G11">
-        <v>387</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>0.6389538967462516</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B12">
-        <v>1.91002825350397</v>
+        <v>0.9777912411483012</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -677,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1937509386013239</v>
       </c>
       <c r="G12">
-        <v>368</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>0.005981549500479022</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B13">
-        <v>3.155540606029902</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -700,21 +700,21 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1712070065618293</v>
       </c>
       <c r="G13">
-        <v>351</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>0.1879099347283276</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B14">
-        <v>2.230531205656742</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -723,21 +723,21 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.1567171914338597</v>
       </c>
       <c r="G14">
-        <v>428</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>0.4073267543883788</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B15">
-        <v>2.000144019971617</v>
+        <v>0.9777912411483012</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -746,21 +746,21 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1567171914338597</v>
       </c>
       <c r="G15">
-        <v>317</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>0.4073267543883788</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B16">
-        <v>1.964508924944067</v>
+        <v>0.9777912411483012</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -769,21 +769,21 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.1470137259046076</v>
       </c>
       <c r="G16">
-        <v>441</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>0.005981549500479022</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B17">
-        <v>3.268501965297586</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.1470137259046076</v>
       </c>
       <c r="G17">
-        <v>446</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>0.4073267543883788</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B18">
-        <v>2.081675222593732</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -815,21 +815,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1242530178594215</v>
       </c>
       <c r="G18">
-        <v>323</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>0.005981549500479022</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B19">
-        <v>3.126389268118547</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -838,21 +838,21 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.1242530178594215</v>
       </c>
       <c r="G19">
-        <v>382</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>0.1792603368446217</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B20">
-        <v>2.67504817810367</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -861,21 +861,21 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.09319399304953217</v>
       </c>
       <c r="G20">
-        <v>432</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>0.4073267543883788</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B21">
-        <v>1.938552921549706</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -884,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.09319399304953217</v>
       </c>
       <c r="G21">
-        <v>310</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>0.4073267543883788</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B22">
-        <v>1.841709211538771</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -910,18 +910,18 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.0860895923116361</v>
       </c>
       <c r="G22">
-        <v>367</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>0.005981549500479022</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B23">
-        <v>3.261116847054459</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -930,44 +930,44 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0860895923116361</v>
       </c>
       <c r="G23">
-        <v>409</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>0.9807957315951545</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B24">
-        <v>2.301236866924604</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.05593842789300776</v>
       </c>
       <c r="G24">
-        <v>235</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B25">
-        <v>3.484147784439172</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>312</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>0.4073267543883788</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B26">
-        <v>1.910198102261127</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -999,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>449</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>0.005981549500479022</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B27">
-        <v>3.159776785054615</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1022,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>436</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B28">
-        <v>3.196698965244892</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>452</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>0.6389538967462516</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B29">
-        <v>1.796753968203762</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>445</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>0.005981549500479022</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B30">
-        <v>2.652444447237691</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1097,15 +1097,15 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>444</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B31">
-        <v>3.208736859354507</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>442</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>0.00116979548031515</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B32">
-        <v>3.40737976006414</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1137,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>451</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>0.00116979548031515</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B33">
-        <v>3.239522088844052</v>
+        <v>0.9777912411483012</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1160,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>437</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>0.1792603368446217</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B34">
-        <v>2.533748731392678</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1189,15 +1189,15 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>425</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>0.005981549500479022</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B35">
-        <v>3.115424933306378</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1206,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>332</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>0.5023282637787584</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B36">
-        <v>2.137709379872163</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1229,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>288</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>0.7400379280036764</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B37">
-        <v>1.981044482975094</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1252,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>424</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B38">
-        <v>3.181660549954707</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1275,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>396</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>0.00116979548031515</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B39">
-        <v>3.280836651452809</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1298,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>366</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>0.1879099347283276</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B40">
-        <v>2.403804701836466</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1321,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>402</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>0.1879099347283276</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B41">
-        <v>2.155245640982853</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1344,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>364</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>0.4073267543883788</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B42">
-        <v>2.06664030786553</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1367,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>433</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>0.1879099347283276</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B43">
-        <v>2.748754953389002</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1390,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>373</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>0.005981549500479022</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B44">
-        <v>3.172419652284962</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1413,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>304</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>0.9866249743854321</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B45">
-        <v>1.469264354236113</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1442,15 +1442,15 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>374</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>0.4073267543883788</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B46">
-        <v>1.893845825187305</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1459,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>412</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>0.1879099347283276</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B47">
-        <v>2.469312648332109</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1482,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>439</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>0.005981549500479022</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B48">
-        <v>2.87386336461841</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1505,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>438</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>0.1879099347283276</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B49">
-        <v>2.496589090457139</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1528,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>329</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>0.1879099347283276</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B50">
-        <v>2.481454961291729</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1551,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>450</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>0.005981549500479022</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B51">
-        <v>3.186696700288071</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1574,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>376</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>0.005981549500479022</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B52">
-        <v>3.299951782306135</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1597,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>386</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>0.1792603368446217</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B53">
-        <v>3.060955404079868</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1620,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>293</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>0.1792603368446217</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B54">
-        <v>2.749882495624623</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1643,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>260</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>0.1792603368446217</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B55">
-        <v>2.661817788276661</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1666,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>322</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>0.1879099347283276</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B56">
-        <v>2.56177696436056</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1689,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>257</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>0.1792603368446217</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B57">
-        <v>3.044629709689219</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1712,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>357</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>0.1792603368446217</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B58">
-        <v>3.107093242767976</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1735,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>416</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>0.4073267543883788</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B59">
-        <v>2.098923637160329</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1758,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>379</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>0.1879099347283276</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B60">
-        <v>2.613153659768607</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>333</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>0.5023282637787584</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B61">
-        <v>2.153451029145698</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1804,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>423</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>0.1792603368446217</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B62">
-        <v>2.841134327026682</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1827,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>389</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>0.7400379280036764</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B63">
-        <v>1.858147829182814</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1850,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>398</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>0.00116979548031515</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B64">
-        <v>3.166678641426958</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1873,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>358</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>0.005981549500479022</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B65">
-        <v>2.88924333570053</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1896,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>440</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>0.1792603368446217</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B66">
-        <v>2.905655697306382</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1919,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>422</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>0.00116979548031515</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B67">
-        <v>2.954343101916661</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1948,15 +1948,15 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>406</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>0.2492623809906104</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B68">
-        <v>2.671083808713758</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1965,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>362</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>0.00116979548031515</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B69">
-        <v>3.069600191721216</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1988,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>417</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>0.1879099347283276</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B70">
-        <v>2.682430377214981</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2011,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>405</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>0.4073267543883788</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B71">
-        <v>2.196818145158554</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -2034,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>399</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>0.0378660225666535</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B72">
-        <v>3.071931522850079</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2057,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>339</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>0.1792603368446217</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B73">
-        <v>2.647197011436717</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -2080,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>434</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>0.6389538967462516</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B74">
-        <v>1.863212362069802</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -2103,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>383</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>0.4073267543883788</v>
+        <v>0.8593856366697482</v>
       </c>
       <c r="B75">
-        <v>2.175649351210835</v>
+        <v>0.4682688909985654</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -2126,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>265</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>0.7400379280036764</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B76">
-        <v>2.143721604489801</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -2149,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>370</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>0.6389538967462516</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B77">
-        <v>1.731473257739433</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -2178,15 +2178,15 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>408</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>0.1879099347283276</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B78">
-        <v>2.091181563199029</v>
+        <v>1.152476718725339</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -2201,15 +2201,15 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>431</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>0.1792603368446217</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B79">
-        <v>2.902767805875865</v>
+        <v>1.29097586847766</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -2218,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>299</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>0.1879099347283276</v>
+        <v>0.4892597218239226</v>
       </c>
       <c r="B80">
-        <v>2.717928418869474</v>
+        <v>0.7618259412925055</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -2241,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>404</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>0.1879099347283276</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B81">
-        <v>2.46465958352804</v>
+        <v>1.582923103333411</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2264,1039 +2264,1279 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>394</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>0.4073267543883788</v>
+        <v>0.5311800579440753</v>
       </c>
       <c r="B82">
-        <v>2.053079019431171</v>
+        <v>0.2711789945781782</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>8</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G82">
-        <v>410</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>0.7400379280036764</v>
+        <v>0.7949113417511819</v>
       </c>
       <c r="B83">
-        <v>2.409293231647465</v>
+        <v>0.1084219934570044</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>11</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G83">
-        <v>347</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>0.1792603368446217</v>
+        <v>0.3315261657397756</v>
       </c>
       <c r="B84">
-        <v>2.687456113717816</v>
+        <v>0.4242169108598486</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G84">
-        <v>392</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>0.00116979548031515</v>
+        <v>0.7378472528909756</v>
       </c>
       <c r="B85">
-        <v>3.265800057607608</v>
+        <v>0.1410196434778176</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>430</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>0.00116979548031515</v>
+        <v>0.9942406690096726</v>
       </c>
       <c r="B86">
-        <v>3.478999085933</v>
+        <v>0.002883823714772693</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>12</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G86">
-        <v>415</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>0.1792603368446217</v>
+        <v>0.7630563053649869</v>
       </c>
       <c r="B87">
-        <v>2.684529699389574</v>
+        <v>0.1264690587248859</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G87">
-        <v>456</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>0.1769576302754001</v>
+        <v>0.8752248633641033</v>
       </c>
       <c r="B88">
-        <v>0.5793366782385228</v>
+        <v>0.06446546650371943</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
+      </c>
+      <c r="G88">
+        <v>1875</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>0.8264704562596782</v>
+        <v>0.2551887706162947</v>
       </c>
       <c r="B89">
-        <v>0.0908957946089578</v>
+        <v>0.494837876898619</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
+      </c>
+      <c r="G89">
+        <v>1876</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>0.5252133197770029</v>
+        <v>0.264301218779637</v>
       </c>
       <c r="B90">
-        <v>0.2752839730094256</v>
+        <v>0.4858976572902658</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
+      </c>
+      <c r="G90">
+        <v>1877</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>0.4525122236128426</v>
+        <v>0.9006203935532878</v>
       </c>
       <c r="B91">
-        <v>0.3273097119678012</v>
+        <v>0.05098978216602545</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
+      </c>
+      <c r="G91">
+        <v>1878</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>0.3926488210720126</v>
+        <v>0.2398895950509521</v>
       </c>
       <c r="B92">
-        <v>0.3733830348035472</v>
+        <v>0.5102147459845774</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
+      </c>
+      <c r="G92">
+        <v>1879</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>0.5833980697926761</v>
+        <v>0.6843734162771985</v>
       </c>
       <c r="B93">
-        <v>0.2361950053890221</v>
+        <v>0.1727313518105509</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
+      </c>
+      <c r="G93">
+        <v>1880</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>0.439244678041675</v>
+        <v>0.01956595555501983</v>
       </c>
       <c r="B94">
-        <v>0.3372446318273423</v>
+        <v>0.8601216401475202</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
+      </c>
+      <c r="G94">
+        <v>1881</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>0.1075011889364363</v>
+        <v>0.219160517437208</v>
       </c>
       <c r="B95">
-        <v>0.6721262606788456</v>
+        <v>0.5318541707574359</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
+      </c>
+      <c r="G95">
+        <v>1882</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>0.7272644671995059</v>
+        <v>0.9061326487399524</v>
       </c>
       <c r="B96">
-        <v>0.1472019774885112</v>
+        <v>0.04808999966385874</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
-        <v>0.4798429920178386</v>
+        <v>0.3494190921425909</v>
       </c>
       <c r="B97">
-        <v>0.3072929969909077</v>
+        <v>0.4088831823213022</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
-        <v>0.1501865545782121</v>
+        <v>0.4900245970565306</v>
       </c>
       <c r="B98">
-        <v>0.6124608992911657</v>
+        <v>0.2999824308943878</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
-        <v>0.6639181221678161</v>
+        <v>0.4570081906641567</v>
       </c>
       <c r="B99">
-        <v>0.1851882903591676</v>
+        <v>0.3239761907564522</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="G99">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
-        <v>0.8101569795235875</v>
+        <v>0.8315141891497155</v>
       </c>
       <c r="B100">
-        <v>0.09991279337855963</v>
+        <v>0.08812600149488004</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="G100">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
-        <v>0.7000492578277377</v>
+        <v>0.7141943256883865</v>
       </c>
       <c r="B101">
-        <v>0.1633105368012946</v>
+        <v>0.1548998132242625</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="G101">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
-        <v>0.2678913008423479</v>
+        <v>0.8979119256164733</v>
       </c>
       <c r="B102">
-        <v>0.4824178317963921</v>
+        <v>0.05241785283993805</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="G102">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
-        <v>0.6520601032911137</v>
+        <v>0.9154720348382124</v>
       </c>
       <c r="B103">
-        <v>0.1924976140647547</v>
+        <v>0.04319697176575976</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="G103">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
-        <v>0.7770640683780899</v>
+        <v>0.1798312135946178</v>
       </c>
       <c r="B104">
-        <v>0.1184876243761011</v>
+        <v>0.5759348946274666</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="G104">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
-        <v>0.547227555380834</v>
+        <v>0.1359123804169297</v>
       </c>
       <c r="B105">
-        <v>0.2602516945738679</v>
+        <v>0.6313370368250566</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="G105">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
-        <v>0.7544557695250161</v>
+        <v>0.4940454420391586</v>
       </c>
       <c r="B106">
-        <v>0.131405866054222</v>
+        <v>0.2971163381901962</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="G106">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
-        <v>0.04791800809492774</v>
+        <v>0.864886340532389</v>
       </c>
       <c r="B107">
-        <v>0.7810981770406474</v>
+        <v>0.07000734382878648</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="G107">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
-        <v>0.4598315288383398</v>
+        <v>0.7685737587594155</v>
       </c>
       <c r="B108">
-        <v>0.3218912116493845</v>
+        <v>0.1233166143017107</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="G108">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
-        <v>0.7552978699612326</v>
+        <v>0.168138355893491</v>
       </c>
       <c r="B109">
-        <v>0.1309212521518935</v>
+        <v>0.5899532271880548</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="G109">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
-        <v>0.08180330085114607</v>
+        <v>0.4453097615647424</v>
       </c>
       <c r="B110">
-        <v>0.7139872365590199</v>
+        <v>0.332684661074884</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="G110">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
-        <v>0.2912906975081437</v>
+        <v>0.5091383427693158</v>
       </c>
       <c r="B111">
-        <v>0.4602864671808351</v>
+        <v>0.286460692905208</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="G111">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
-        <v>0.8414432601685367</v>
+        <v>0.8789007216677223</v>
       </c>
       <c r="B112">
-        <v>0.08269783595124081</v>
+        <v>0.06250294844851789</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="G112">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
-        <v>0.2911457833545831</v>
+        <v>0.701516881941308</v>
       </c>
       <c r="B113">
-        <v>0.4604207348733802</v>
+        <v>0.1624339536840643</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="G113">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
-        <v>0.4395954758318166</v>
+        <v>0.06824439193919496</v>
       </c>
       <c r="B114">
-        <v>0.3369800336099851</v>
+        <v>0.7387637239218202</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="G114">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
-        <v>0.3153048901599963</v>
+        <v>0.9581528693351299</v>
       </c>
       <c r="B115">
-        <v>0.4384798399344897</v>
+        <v>0.0211471666613362</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="G115">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
-        <v>0.7562313721934452</v>
+        <v>0.6951637608195381</v>
       </c>
       <c r="B116">
-        <v>0.1303843537553817</v>
+        <v>0.1662351885456318</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="G116">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
-        <v>0.05132205549666347</v>
+        <v>0.826805731073997</v>
       </c>
       <c r="B117">
-        <v>0.7734562834756535</v>
+        <v>0.09071141485554923</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="G117">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
-        <v>0.1664528806562539</v>
+        <v>0.3899483548731976</v>
       </c>
       <c r="B118">
-        <v>0.592013626874311</v>
+        <v>0.3755415507231906</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="G118">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
-        <v>0.1576252675699377</v>
+        <v>0.8696656914154322</v>
       </c>
       <c r="B119">
-        <v>0.6029795124052946</v>
+        <v>0.06744132012219617</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="G119">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
-        <v>0.618698036900594</v>
+        <v>0.09704425791026006</v>
       </c>
       <c r="B120">
-        <v>0.213426394480088</v>
+        <v>0.6884807262619854</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="G120">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
-        <v>0.7346666127892433</v>
+        <v>0.5916994227715021</v>
       </c>
       <c r="B121">
-        <v>0.1428730474490706</v>
+        <v>0.2307799906583929</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="G121">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
-        <v>0.5381059910173821</v>
+        <v>0.8595433945925879</v>
       </c>
       <c r="B122">
-        <v>0.2664429190462531</v>
+        <v>0.07288436827298184</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="G122">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
-        <v>0.6135761028313479</v>
+        <v>0.1910334810801609</v>
       </c>
       <c r="B123">
-        <v>0.2166890126958847</v>
+        <v>0.5629262292470973</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="G123">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
-        <v>0.6225447579910867</v>
+        <v>0.7930935317691258</v>
       </c>
       <c r="B124">
-        <v>0.2109849443824999</v>
+        <v>0.1094420110014588</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="G124">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
-        <v>0.4075681220952169</v>
+        <v>0.6825576399072539</v>
       </c>
       <c r="B125">
-        <v>0.361589378146622</v>
+        <v>0.1738295333847536</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="G125">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
-        <v>0.81557693922712</v>
+        <v>0.8286504972523827</v>
       </c>
       <c r="B126">
-        <v>0.09690701518220168</v>
+        <v>0.08969757923403132</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="G126">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
-        <v>0.527801801250995</v>
+        <v>0.5109605552358676</v>
       </c>
       <c r="B127">
-        <v>0.2735003088431524</v>
+        <v>0.2851849503292004</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="G127">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
-        <v>0.2265702640225776</v>
+        <v>0.03724408572884486</v>
       </c>
       <c r="B128">
-        <v>0.5240060252245018</v>
+        <v>0.8070127316923604</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="G128">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
-        <v>0.153010792859422</v>
+        <v>0.8332696404681548</v>
       </c>
       <c r="B129">
-        <v>0.6088340596889577</v>
+        <v>0.08716395751035622</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="G129">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
-        <v>0.9732989230554244</v>
+        <v>0.1805880731725078</v>
       </c>
       <c r="B130">
-        <v>0.01344086692412383</v>
+        <v>0.5750434455470679</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="G130">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
-        <v>0.1817744027931943</v>
+        <v>0.6304178574522784</v>
       </c>
       <c r="B131">
-        <v>0.5736499058365363</v>
+        <v>0.2060114248603583</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="G131">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
-        <v>0.1882151881580988</v>
+        <v>0.3373080381438309</v>
       </c>
       <c r="B132">
-        <v>0.5661622559549495</v>
+        <v>0.419217736028526</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="G132">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
-        <v>0.06322205782544044</v>
+        <v>0.952017604058488</v>
       </c>
       <c r="B133">
-        <v>0.7485600313684388</v>
+        <v>0.0242861054292155</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="G133">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
-        <v>0.6183884485895111</v>
+        <v>0.2200349982553358</v>
       </c>
       <c r="B134">
-        <v>0.2136232146168663</v>
+        <v>0.5309211172357726</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="G134">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
-        <v>0.6996540519400063</v>
+        <v>0.8886920779277777</v>
       </c>
       <c r="B135">
-        <v>0.1635467425253182</v>
+        <v>0.05729533896995198</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="G135">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
-        <v>0.6497697101541765</v>
+        <v>0.9616914094887219</v>
       </c>
       <c r="B136">
-        <v>0.1939170575218847</v>
+        <v>0.01934133895186452</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="G136">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
-        <v>0.4466703958267103</v>
+        <v>0.9698887037942968</v>
       </c>
       <c r="B137">
-        <v>0.3316659549097395</v>
+        <v>0.01517072352904902</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="G137">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
-        <v>0.1132982043668516</v>
+        <v>0.6096900211320337</v>
       </c>
       <c r="B138">
-        <v>0.6634020137213361</v>
+        <v>0.2191735012616223</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="G138">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
-        <v>0.3076035788901175</v>
+        <v>0.4737383928689488</v>
       </c>
       <c r="B139">
-        <v>0.4453797886029418</v>
+        <v>0.3117134369545278</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="G139">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
-        <v>0.625113569683632</v>
+        <v>0.6834468728861059</v>
       </c>
       <c r="B140">
-        <v>0.2093587604459074</v>
+        <v>0.173291542993477</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="G140">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
-        <v>0.6889984643085004</v>
+        <v>0.8189000759625217</v>
       </c>
       <c r="B141">
-        <v>0.1699406862708542</v>
+        <v>0.09506902143725804</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="G141">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
-        <v>0.6056607163105719</v>
+        <v>0.5664671148873243</v>
       </c>
       <c r="B142">
-        <v>0.221757932060614</v>
+        <v>0.247359903481535</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="G142">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
-        <v>0.9180074665462794</v>
+        <v>0.1833160571428116</v>
       </c>
       <c r="B143">
-        <v>0.04187293820376858</v>
+        <v>0.5718457554305789</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="G143">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
-        <v>0.5826437649724032</v>
+        <v>0.4972751445015093</v>
       </c>
       <c r="B144">
-        <v>0.2366889461219606</v>
+        <v>0.2948226148680678</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="G144">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
-        <v>0.5852024560258562</v>
+        <v>0.7167493332067799</v>
       </c>
       <c r="B145">
-        <v>0.2350147347655276</v>
+        <v>0.1533895032502964</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="G145">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
-        <v>0.760971089858791</v>
+        <v>0.03310801877153324</v>
       </c>
       <c r="B146">
-        <v>0.1276634308600888</v>
+        <v>0.8180439097706997</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="G146">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
-        <v>0.3279146148763589</v>
+        <v>0.5853805514815985</v>
       </c>
       <c r="B147">
-        <v>0.427361706767388</v>
+        <v>0.2348983391198275</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="G147">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
-        <v>0.8138295237682464</v>
+        <v>0.4238910358421676</v>
       </c>
       <c r="B148">
-        <v>0.09787499548663081</v>
+        <v>0.3489308517199056</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="G148">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
-        <v>0.3573639250404659</v>
+        <v>0.5890564586846397</v>
       </c>
       <c r="B149">
-        <v>0.4022007652727666</v>
+        <v>0.2324998640491067</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="G149">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
-        <v>0.8661343134675039</v>
+        <v>0.7023787334025262</v>
       </c>
       <c r="B150">
-        <v>0.06933662720213174</v>
+        <v>0.1619196139972454</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="G150">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
-        <v>0.07468177894293471</v>
+        <v>0.5106824288737095</v>
       </c>
       <c r="B151">
-        <v>0.7267203283393828</v>
+        <v>0.2853795210926925</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="G151">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
-        <v>0.2168550738110429</v>
+        <v>0.8043979749473975</v>
       </c>
       <c r="B152">
-        <v>0.5343229941138999</v>
+        <v>0.1031176359480596</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="G152">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
-        <v>0.8152041133393667</v>
+        <v>0.7665449435753197</v>
       </c>
       <c r="B153">
-        <v>0.09711345489072287</v>
+        <v>0.1244744757716543</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="G153">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
-        <v>0.9648608884556547</v>
+        <v>0.4900341309284622</v>
       </c>
       <c r="B154">
-        <v>0.01772667324432831</v>
+        <v>0.2999756211899031</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="G154">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
-        <v>0.2759784292356735</v>
+        <v>0.7446456720935061</v>
       </c>
       <c r="B155">
-        <v>0.4746635085626799</v>
+        <v>0.1370714559747684</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="G155">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
-        <v>0.8553132098517281</v>
+        <v>0.3236096529061264</v>
       </c>
       <c r="B156">
-        <v>0.07516855057165794</v>
+        <v>0.4311330094774998</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="G156">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
-        <v>0.6006216084426382</v>
+        <v>0.6168777881839803</v>
       </c>
       <c r="B157">
-        <v>0.2250021881046126</v>
+        <v>0.2145843214042769</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="G157">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
-        <v>0.3673191882555814</v>
+        <v>0.2134250078078259</v>
       </c>
       <c r="B158">
-        <v>0.3939313667120024</v>
+        <v>0.5380205547777845</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="G158">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
-        <v>0.1908637761175143</v>
+        <v>0.47126435116893</v>
       </c>
       <c r="B159">
-        <v>0.5631204100469853</v>
+        <v>0.3135130364173476</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="G159">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
-        <v>0.9474041106616052</v>
+        <v>0.361308156765078</v>
       </c>
       <c r="B160">
-        <v>0.02665313959431437</v>
+        <v>0.3989108578878853</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
+      </c>
+      <c r="G160">
+        <v>1947</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>0.0160528040425626</v>
+        <v>0.5177557879468674</v>
       </c>
       <c r="B161">
-        <v>0.8733003392168606</v>
+        <v>0.2804475085534986</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
+      </c>
+      <c r="G161">
+        <v>1948</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>0.6136848934035121</v>
+        <v>0.655284032358374</v>
       </c>
       <c r="B162">
-        <v>0.2166195730020363</v>
+        <v>4.344660077806917</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>0.3551333993874033</v>
+        <v>0.9299243863691835</v>
       </c>
       <c r="B163">
-        <v>0.4040692998448534</v>
+        <v>3.840341737261322</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>7</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>0.456589539394699</v>
+        <v>0.8057350449969993</v>
       </c>
       <c r="B164">
-        <v>0.3242859041024089</v>
+        <v>3.89633636061458</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>7</v>
+      </c>
+      <c r="F164">
+        <v>1.089969447964451</v>
+      </c>
+      <c r="G164">
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>0.8309319725351554</v>
+        <v>0.6602123593100673</v>
       </c>
       <c r="B165">
-        <v>0.08844529920845923</v>
+        <v>4.063736019195232</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>7</v>
+      </c>
+      <c r="F165">
+        <v>0.9100305520355485</v>
+      </c>
+      <c r="G165">
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>0.7434543129899782</v>
+        <v>0.6628766943170856</v>
       </c>
       <c r="B166">
-        <v>0.1377620322730051</v>
+        <v>3.899657281675771</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>0.8617988854607477</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>0.4530829620940302</v>
+        <v>0.5317466281795795</v>
       </c>
       <c r="B167">
-        <v>0.3268856248050929</v>
+        <v>3.232928874416631</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>0.8475500466738285</v>
+        <v>0.03434131504032145</v>
       </c>
       <c r="B168">
-        <v>3.964418632906197</v>
+        <v>4.77863764019217</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -3305,18 +3545,21 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>0.2180155651825776</v>
+        <v>0.1264536657692488</v>
       </c>
       <c r="B169">
-        <v>4.813997428446048</v>
+        <v>5.276891243689569</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -3325,18 +3568,21 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>0.1112701127842038</v>
+        <v>0.8622271317820205</v>
       </c>
       <c r="B170">
-        <v>4.774495742688753</v>
+        <v>3.10892206232881</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -3345,18 +3591,21 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>0.4995822889407093</v>
+        <v>0.2709436755805099</v>
       </c>
       <c r="B171">
-        <v>3.958975753165974</v>
+        <v>5.120595087079387</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -3365,18 +3614,21 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>0.8829552541287455</v>
+        <v>0.9259382814320039</v>
       </c>
       <c r="B172">
-        <v>3.843007253714757</v>
+        <v>3.184404719734506</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
@@ -3385,18 +3637,21 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>0.1879099347283276</v>
+        <v>0.9739681155938703</v>
       </c>
       <c r="B173">
-        <v>4.383017611205593</v>
+        <v>2.829692162504846</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3407,16 +3662,19 @@
       <c r="E173">
         <v>2</v>
       </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
       <c r="G173">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>0.3165317543964173</v>
+        <v>0.6140484972783402</v>
       </c>
       <c r="B174">
-        <v>3.013648134800688</v>
+        <v>3.744617433180864</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -3425,18 +3683,21 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>0.9807957315951545</v>
+        <v>0.02130421111144754</v>
       </c>
       <c r="B175">
-        <v>2.761022931908219</v>
+        <v>4.5409819216676</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -3447,16 +3708,19 @@
       <c r="E175">
         <v>1</v>
       </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
       <c r="G175">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>0.401041261496183</v>
+        <v>0.006196764266682475</v>
       </c>
       <c r="B176">
-        <v>5.131521732903246</v>
+        <v>4.789766664110201</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -3465,18 +3729,21 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>0.9572679442981463</v>
+        <v>0.619680840722138</v>
       </c>
       <c r="B177">
-        <v>3.508106200078391</v>
+        <v>3.431915271899284</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -3485,18 +3752,21 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>0.8931480838696165</v>
+        <v>0.8762959936588204</v>
       </c>
       <c r="B178">
-        <v>3.755239975629781</v>
+        <v>3.031750306660586</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -3505,18 +3775,21 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>0.486309435157025</v>
+        <v>0.1006255967963925</v>
       </c>
       <c r="B179">
-        <v>3.754605751102764</v>
+        <v>5.247917392418291</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -3525,18 +3798,21 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>0.05493150721514206</v>
+        <v>0.250444418451649</v>
       </c>
       <c r="B180">
-        <v>5.14379081933537</v>
+        <v>3.918088335549046</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -3545,18 +3821,21 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>0.5081295983981822</v>
+        <v>0.3752665145456134</v>
       </c>
       <c r="B181">
-        <v>3.326889806177252</v>
+        <v>4.019115191003384</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3567,16 +3846,19 @@
       <c r="E181">
         <v>2</v>
       </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
       <c r="G181">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>0.3102737318077838</v>
+        <v>0.5920933393276269</v>
       </c>
       <c r="B182">
-        <v>3.992575703949948</v>
+        <v>3.331379277104855</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -3587,16 +3869,19 @@
       <c r="E182">
         <v>3</v>
       </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
       <c r="G182">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>0.3935892968836819</v>
+        <v>0.07472752473972821</v>
       </c>
       <c r="B183">
-        <v>4.319618641592503</v>
+        <v>4.363640889925416</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3605,18 +3890,21 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>0.5023282637787584</v>
+        <v>0.4847725669847861</v>
       </c>
       <c r="B184">
-        <v>2.792310812199945</v>
+        <v>3.675514346226925</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -3625,18 +3913,21 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>0.7928790693541539</v>
+        <v>0.1981639247729612</v>
       </c>
       <c r="B185">
-        <v>3.2455037989895</v>
+        <v>4.100332548619068</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
@@ -3645,18 +3936,21 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>0.3041342004045717</v>
+        <v>0.2867671921541396</v>
       </c>
       <c r="B186">
-        <v>5.003524942678576</v>
+        <v>4.912447123887961</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3665,18 +3959,21 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>0.4234664230029661</v>
+        <v>0.5899748625398038</v>
       </c>
       <c r="B187">
-        <v>3.837040498581622</v>
+        <v>3.744179787910744</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -3685,18 +3982,21 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>0.5696874994622743</v>
+        <v>0.6312544651455639</v>
       </c>
       <c r="B188">
-        <v>3.978511835500517</v>
+        <v>3.471084308472599</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -3705,18 +4005,21 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>0.8140976131040522</v>
+        <v>0.571074786535874</v>
       </c>
       <c r="B189">
-        <v>3.312548910434717</v>
+        <v>4.180271125581024</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3725,18 +4028,21 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>0.9606645714958097</v>
+        <v>0.3966447551515101</v>
       </c>
       <c r="B190">
-        <v>3.390288677083424</v>
+        <v>3.672450933595405</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -3745,18 +4051,21 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>0.1792603368446217</v>
+        <v>0.05723186029769811</v>
       </c>
       <c r="B191">
-        <v>4.176768037061099</v>
+        <v>5.379587496505126</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -3765,18 +4074,21 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>0.3334948069212259</v>
+        <v>0.02020530474279747</v>
       </c>
       <c r="B192">
-        <v>4.647932359870678</v>
+        <v>5.133401398487979</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -3785,18 +4097,21 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>0.2492623809906104</v>
+        <v>0.0798234701300522</v>
       </c>
       <c r="B193">
-        <v>3.956256317522824</v>
+        <v>4.372641431595011</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -3805,18 +4120,21 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>0.7172339391736677</v>
+        <v>0.2709923910100449</v>
       </c>
       <c r="B194">
-        <v>3.779495347479991</v>
+        <v>4.230096451341164</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -3825,18 +4143,21 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>0.6619762995953838</v>
+        <v>0.5262837822302207</v>
       </c>
       <c r="B195">
-        <v>3.270401535439686</v>
+        <v>3.329215686673801</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -3845,18 +4166,21 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>0.2494063443563128</v>
+        <v>0.314823755003128</v>
       </c>
       <c r="B196">
-        <v>4.751052945847299</v>
+        <v>4.295154366406519</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -3865,18 +4189,21 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>0.1321439125004787</v>
+        <v>0.01978720257838151</v>
       </c>
       <c r="B197">
-        <v>5.166669427115711</v>
+        <v>4.963469552686825</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -3885,18 +4212,21 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>0.4104278646170467</v>
+        <v>0.1082839691350999</v>
       </c>
       <c r="B198">
-        <v>3.602762870226668</v>
+        <v>4.558573088657434</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -3905,18 +4235,21 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>0.9835808171876667</v>
+        <v>0.01423356891269434</v>
       </c>
       <c r="B199">
-        <v>2.890220184529037</v>
+        <v>4.695379742108878</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -3925,18 +4258,21 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
       </c>
       <c r="G199">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>0.02752857510384998</v>
+        <v>0.2813299755014665</v>
       </c>
       <c r="B200">
-        <v>5.198593323769328</v>
+        <v>3.912866725527347</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -3945,18 +4281,21 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>0.4715747796084705</v>
+        <v>0.6291247472135963</v>
       </c>
       <c r="B201">
-        <v>3.652618767098466</v>
+        <v>3.692326484450973</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -3965,18 +4304,21 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>0.3324720116492267</v>
+        <v>0.8229277958117898</v>
       </c>
       <c r="B202">
-        <v>4.610152217665179</v>
+        <v>3.307541030874193</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -3985,18 +4327,21 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>0.1194694543093577</v>
+        <v>0.8360154615718292</v>
       </c>
       <c r="B203">
-        <v>4.915692150690417</v>
+        <v>3.286108515136062</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -4005,18 +4350,21 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>0.278292248547365</v>
+        <v>0.9328798796793225</v>
       </c>
       <c r="B204">
-        <v>4.971478668785032</v>
+        <v>2.29036727029712</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -4025,18 +4373,21 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>0.7318898175520243</v>
+        <v>0.9849880114241355</v>
       </c>
       <c r="B205">
-        <v>3.220996688761812</v>
+        <v>3.276618476178638</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -4045,18 +4396,21 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>0.08060933500312673</v>
+        <v>0.3287829581688978</v>
       </c>
       <c r="B206">
-        <v>4.728397368237109</v>
+        <v>3.835368473105724</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -4065,18 +4419,21 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>0.4442577554538129</v>
+        <v>0.3003690265743385</v>
       </c>
       <c r="B207">
-        <v>4.051043243962703</v>
+        <v>3.907847767757731</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -4085,18 +4442,21 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>0.9590109096159871</v>
+        <v>0.9636858021836811</v>
       </c>
       <c r="B208">
-        <v>3.138164417032176</v>
+        <v>3.244649335503354</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -4105,18 +4465,21 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>0.5089413051613352</v>
+        <v>0.842784579567453</v>
       </c>
       <c r="B209">
-        <v>3.893511713052343</v>
+        <v>3.246388785212253</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -4125,18 +4488,21 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
       </c>
       <c r="G209">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>0.08974224934316211</v>
+        <v>0.08368561165256139</v>
       </c>
       <c r="B210">
-        <v>5.280297861327282</v>
+        <v>4.217430461276888</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -4145,18 +4511,21 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>0.05117396006321595</v>
+        <v>0.3798021827218954</v>
       </c>
       <c r="B211">
-        <v>4.23487244055143</v>
+        <v>4.781564116873014</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -4165,18 +4534,21 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>0.0378660225666535</v>
+        <v>0.2830868599746915</v>
       </c>
       <c r="B212">
-        <v>4.329686404288044</v>
+        <v>4.113048671400446</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -4185,18 +4557,21 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>0.5394114898602009</v>
+        <v>0.9306529877760658</v>
       </c>
       <c r="B213">
-        <v>3.759474477488999</v>
+        <v>3.330457468197976</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -4207,16 +4582,19 @@
       <c r="E213">
         <v>5</v>
       </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
       <c r="G213">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>0.7778980798985237</v>
+        <v>0.4029476059178247</v>
       </c>
       <c r="B214">
-        <v>3.592911366074414</v>
+        <v>4.487082474013742</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -4227,16 +4605,19 @@
       <c r="E214">
         <v>6</v>
       </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
       <c r="G214">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>0.02708001342012412</v>
+        <v>0.1128967700731137</v>
       </c>
       <c r="B215">
-        <v>5.565771864294841</v>
+        <v>4.225688467668339</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -4245,18 +4626,21 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>0.5243318162125291</v>
+        <v>0.4301427288496985</v>
       </c>
       <c r="B216">
-        <v>3.183368656846737</v>
+        <v>2.851278689687025</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -4265,18 +4649,21 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>0.4482477644675152</v>
+        <v>0.3329109558355264</v>
       </c>
       <c r="B217">
-        <v>3.881203732867887</v>
+        <v>3.515061531426324</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -4285,18 +4672,21 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>0.7514398980679978</v>
+        <v>0.003965602978288962</v>
       </c>
       <c r="B218">
-        <v>3.57833957649303</v>
+        <v>5.072755819126288</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -4305,18 +4695,21 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>0.2776885921747128</v>
+        <v>0.01901434386154766</v>
       </c>
       <c r="B219">
-        <v>3.986697100911534</v>
+        <v>5.318732114308991</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -4327,16 +4720,19 @@
       <c r="E219">
         <v>2</v>
       </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
       <c r="G219">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>0.7400379280036764</v>
+        <v>0.5897573382902787</v>
       </c>
       <c r="B220">
-        <v>3.085768654975415</v>
+        <v>3.347719028040572</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -4345,18 +4741,21 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>0.882006570359247</v>
+        <v>0.4011503381705505</v>
       </c>
       <c r="B221">
-        <v>3.313042804184389</v>
+        <v>3.781776697699965</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -4365,18 +4764,21 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>0.4073267543883788</v>
+        <v>0.5156859019867951</v>
       </c>
       <c r="B222">
-        <v>3.822339494571199</v>
+        <v>3.346054718761753</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -4387,16 +4789,19 @@
       <c r="E222">
         <v>2</v>
       </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
       <c r="G222">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>0.9385159879475317</v>
+        <v>0.6553761448588522</v>
       </c>
       <c r="B223">
-        <v>3.769769056615602</v>
+        <v>3.611334900524945</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -4405,18 +4810,21 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>0.4507560907360972</v>
+        <v>0.4968795374771934</v>
       </c>
       <c r="B224">
-        <v>3.742292102331883</v>
+        <v>3.653092389283913</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -4425,18 +4833,21 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>0.005981549500479022</v>
+        <v>0.2022248908119313</v>
       </c>
       <c r="B225">
-        <v>5.125591185504357</v>
+        <v>4.600611304663874</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -4445,18 +4856,21 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>0.3795196726886194</v>
+        <v>0.7111485893921261</v>
       </c>
       <c r="B226">
-        <v>3.929579195793579</v>
+        <v>3.50087248713765</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -4465,18 +4879,21 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>0.4491838318793283</v>
+        <v>0.9887675830218801</v>
       </c>
       <c r="B227">
-        <v>3.92689450813268</v>
+        <v>2.641013231141493</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -4485,18 +4902,21 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>0.496754851929304</v>
+        <v>0.1838007127655408</v>
       </c>
       <c r="B228">
-        <v>3.72231968779676</v>
+        <v>4.258753420950936</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -4505,18 +4925,21 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>0.3029291491167867</v>
+        <v>0.5669033475353914</v>
       </c>
       <c r="B229">
-        <v>3.504606726887119</v>
+        <v>4.098862965306154</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -4525,18 +4948,21 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>0.416151407588227</v>
+        <v>0.1573283736082651</v>
       </c>
       <c r="B230">
-        <v>4.716364570521263</v>
+        <v>4.267105632319779</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -4545,18 +4971,21 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <v>0.8114641854815828</v>
+        <v>0.6124947899265918</v>
       </c>
       <c r="B231">
-        <v>3.774906269079771</v>
+        <v>3.519474749156249</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -4565,18 +4994,21 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>0.09179414499784266</v>
+        <v>0.574796097252582</v>
       </c>
       <c r="B232">
-        <v>4.532443435871232</v>
+        <v>3.957559924361637</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -4585,18 +5017,21 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>0.4173736542686111</v>
+        <v>0.6229633442164362</v>
       </c>
       <c r="B233">
-        <v>4.051764445068763</v>
+        <v>3.391300981249639</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -4607,16 +5042,19 @@
       <c r="E233">
         <v>4</v>
       </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
       <c r="G233">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>0.7579799246595962</v>
+        <v>0.6317550005306112</v>
       </c>
       <c r="B234">
-        <v>3.404693491149074</v>
+        <v>3.910569317605438</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -4625,18 +5063,21 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>0.5477405514166659</v>
+        <v>0.9286586468163684</v>
       </c>
       <c r="B235">
-        <v>3.427670908284193</v>
+        <v>3.204936447485608</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -4645,18 +5086,21 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>0.3021593513648917</v>
+        <v>0.7057465538514928</v>
       </c>
       <c r="B236">
-        <v>4.929017460162075</v>
+        <v>3.538892415194603</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -4665,18 +5109,21 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <v>0.5625648763918955</v>
+        <v>0.9680352293659014</v>
       </c>
       <c r="B237">
-        <v>3.390178192412694</v>
+        <v>3.350700771351114</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -4685,18 +5132,21 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
-        <v>0.00116979548031515</v>
+        <v>0.0390959253239983</v>
       </c>
       <c r="B238">
-        <v>4.544440214738835</v>
+        <v>5.165302800110252</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -4705,18 +5155,21 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
-        <v>0.5889382584897729</v>
+        <v>0.3905397819907217</v>
       </c>
       <c r="B239">
-        <v>4.223542511420565</v>
+        <v>4.471735751760744</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -4725,18 +5178,21 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>0.5398587582729083</v>
+        <v>0.5386354560977692</v>
       </c>
       <c r="B240">
-        <v>3.813096708100635</v>
+        <v>3.845144989155884</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -4745,18 +5201,21 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>0.3122124527390446</v>
+        <v>0.5954514077963404</v>
       </c>
       <c r="B241">
-        <v>3.940313726066424</v>
+        <v>4.121104014780455</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -4765,89 +5224,12 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242">
-        <v>0.7590398095164625</v>
-      </c>
-      <c r="B242">
-        <v>3.581884601029896</v>
-      </c>
-      <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <v>5</v>
-      </c>
-      <c r="G242">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243">
-        <v>0.04213197703927207</v>
-      </c>
-      <c r="B243">
-        <v>5.277318864680466</v>
-      </c>
-      <c r="C243" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>4</v>
-      </c>
-      <c r="G243">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244">
-        <v>0.3741354304811264</v>
-      </c>
-      <c r="B244">
-        <v>3.848772521255118</v>
-      </c>
-      <c r="C244" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>2</v>
-      </c>
-      <c r="G244">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245">
-        <v>0.7917552093394102</v>
-      </c>
-      <c r="B245">
-        <v>3.255395100568878</v>
-      </c>
-      <c r="C245" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>4</v>
-      </c>
-      <c r="G245">
         <v>79</v>
       </c>
     </row>
